--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004890.201205879</v>
+        <v>2002555.0900039</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>285.2133973457384</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>67.22331801800679</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>168.885688704624</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.2368551623169</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
-        <v>41.13708238253194</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>163.5358524338113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.626889274476</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>168.3381167077338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>99.97427419833815</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505239</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428033</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605714818</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.450422773245</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974333</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1269.331624317611</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872917</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2391.74772364801</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2060.684836304439</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1707.916181034325</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1334.450422773245</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>944.3110907974335</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1492.310105122875</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1269.331624317611</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1269.331624317611</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1269.331624317611</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.331624317611</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.96527192868</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>194.8007783998286</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192596</v>
@@ -5519,7 +5519,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,22 +5528,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142526</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400699</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812163</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812163</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812163</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270429</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,10 +6546,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,7 +6725,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538929767</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>83.79952661609417</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>40.32043864788574</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172165</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194356</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124975</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26323,10 +26323,10 @@
         <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26335,10 +26335,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
@@ -26347,13 +26347,13 @@
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,16 +26421,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309561</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744289</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26439,22 +26439,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744289</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744271</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26522,46 +26522,46 @@
         <v>-768482.4540877491</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.3294881706</v>
+        <v>346269.3294881709</v>
       </c>
       <c r="D6" t="n">
         <v>186253.8667401717</v>
       </c>
       <c r="E6" t="n">
-        <v>129740.3717599981</v>
+        <v>129705.6338345623</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.8335673529</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419174</v>
       </c>
       <c r="J6" t="n">
-        <v>287547.6557573704</v>
+        <v>287512.9178319349</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419177</v>
       </c>
       <c r="L6" t="n">
-        <v>406858.8635591624</v>
+        <v>406824.1256337265</v>
       </c>
       <c r="M6" t="n">
-        <v>370097.8056318412</v>
+        <v>370063.0677064055</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.8335673531</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.833567353</v>
+        <v>455118.0956419177</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673533</v>
+        <v>455118.0956419174</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>84.51770333273066</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>153.5253779792051</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>82.159561423838</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>9.001083493736644</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.581234460824248</v>
       </c>
       <c r="S7" t="n">
-        <v>153.5253779792056</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>222.7020862222423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696594</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.0290152085043</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,10 +32704,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33029,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,13 +33266,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,31 +34442,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>304.13479817678</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.34951124454038</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.402257299897</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
